--- a/Intent_Prediction/past_results/20250421/BERT.xlsx
+++ b/Intent_Prediction/past_results/20250421/BERT.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borisPMC\Documents\GitHub\Medic_Grabber\Intent_Prediction\past_results\20250421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20051248d\Documents\GitHub\Medic_Grabber\Intent_Prediction\past_results\20250421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9C642B-7128-46F0-A8F7-966B0F235006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57253DFC-D03B-4BAB-B5D0-57DF2530BE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82D99EFD-01CD-4FFB-BD9F-AAC9B9CC3908}"/>
+    <workbookView xWindow="6345" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{82D99EFD-01CD-4FFB-BD9F-AAC9B9CC3908}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Whisper" sheetId="1" r:id="rId1"/>
+    <sheet name="BERT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hidden Case Validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intent F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medicine List SeqF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,37 +68,86 @@
     <t>Token F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Eval Intent Loss</t>
+  </si>
+  <si>
+    <t>Eval NER Loss</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Difference between Train &amp; Evaluation Loss</t>
+  </si>
+  <si>
+    <t>Train &amp; Eval Loss Diff</t>
+  </si>
+  <si>
+    <t>Large
+Turbo_V3</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>Intent F1 Score</t>
+  </si>
+  <si>
+    <t>Med List F1 Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -246,13 +285,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,21 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,9 +398,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,7 +481,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -346,25 +512,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Valid</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Train</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> Dataset Evaluation by Epochs</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summary of BERT by Epochs</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30449822199161858"/>
-          <c:y val="9.6269542590807951E-3"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -390,395 +548,26 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1551418261069804E-2"/>
-          <c:y val="7.4448446270224816E-2"/>
-          <c:w val="0.92719095288543141"/>
-          <c:h val="0.72982470857617598"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intent F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表2!$A$1:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>Epoch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表2!$B$2:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>2.7210884353741398E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27448851961046999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.328726586423712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36692496035092897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34894476357890902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42002987220378502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49508560266996599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51163763006914897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49118512005820902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50056689342403604</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56200466200466204</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59993078983112202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.60122810362843504</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62860442458075205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.62580172762324204</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.65996860282574499</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.84392084863321004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.782033068765699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82562969717933399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78701285869576698</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.81292742345373903</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75659532518815098</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75866217306895201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.86785873529214896</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.81616186073813102</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.81523809523809498</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.75997616287188596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.79241257100539697</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78936133866799096</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.77979703356752506</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.77979703356752506</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.78171286966940801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CC0-4ACE-9214-3CB9253D9BF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$C$1</c:f>
+              <c:f>BERT!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Med List SeqF1</c:v>
+                  <c:v>Intent F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,328 +584,101 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表2!$A$1:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>Epoch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$C$2:$C$52</c:f>
+              <c:f>BERT!$E$3:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.31798245614034998</c:v>
+                  <c:v>0.27448851961046999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90350877192982404</c:v>
+                  <c:v>0.328726586423712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98026315789473595</c:v>
+                  <c:v>0.36692496035092897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98903508771929804</c:v>
+                  <c:v>0.34894476357890902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99561403508771895</c:v>
+                  <c:v>0.42002987220378502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.49508560266996599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.51163763006914897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.49118512005820902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.50056689342403604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.56200466200466204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.59993078983112202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.60122810362843504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.62860442458075205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.62580172762324204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.65996860282574499</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.84392084863321004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.782033068765699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.82562969717933399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.78701285869576698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.81292742345373903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0.75659532518815098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.75866217306895201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0.86785873529214896</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0.81616186073813102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0.81523809523809498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.75997616287188596</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0.78171286966940801</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0.79241257100539697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0.78936133866799096</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0.78171286966940801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CC0-4ACE-9214-3CB9253D9BF4}"/>
+              <c16:uniqueId val="{0000002B-AA8F-4852-9EFB-3107F44852DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1133,11 +695,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$D$1</c:f>
+              <c:f>BERT!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Token F1</c:v>
+                  <c:v>Train &amp; Eval Loss Diff</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1154,328 +716,101 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表2!$A$1:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>Epoch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$D$2:$D$52</c:f>
+              <c:f>BERT!$H$3:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.5056273753884301E-2</c:v>
+                  <c:v>0.65151941085904297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24964684505554899</c:v>
+                  <c:v>0.58814518616198908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91718289766209504</c:v>
+                  <c:v>0.51805376487970034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97806385253421202</c:v>
+                  <c:v>0.49214015057086913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98940525917969502</c:v>
+                  <c:v>0.46625387918055039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98934821639985104</c:v>
+                  <c:v>0.45420850426107617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99446085799685502</c:v>
+                  <c:v>0.39595035517811739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99259295990363405</c:v>
+                  <c:v>0.38096101105138624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99353535353535305</c:v>
+                  <c:v>0.38241193397641099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.43987835734635594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99567286747240202</c:v>
+                  <c:v>0.37677883320748801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99673142530285397</c:v>
+                  <c:v>0.46582087518125714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99567286747240202</c:v>
+                  <c:v>0.38086408002376526</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99544913044499295</c:v>
+                  <c:v>0.40926448005139798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.51310707442611392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.38399729432389107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99567286747240202</c:v>
+                  <c:v>0.3589925044164054</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99673142530285397</c:v>
+                  <c:v>0.36914355736970805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.56055788762420355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.39307299138456486</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.41321739717721856</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.39786803133040616</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.34721724456399589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99247712070522598</c:v>
+                  <c:v>0.43552011637389587</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.43084329701661983</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.58411845799088413</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.5254677744172509</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.36129487095847701</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99567286747240202</c:v>
+                  <c:v>0.45493027328252761</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.996580663958062</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.996580663958062</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.99552200377775002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.99463160761290503</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.99463160761290503</c:v>
+                  <c:v>0.486565803833305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,7 +818,139 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8CC0-4ACE-9214-3CB9253D9BF4}"/>
+              <c16:uniqueId val="{0000002C-AA8F-4852-9EFB-3107F44852DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BERT!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Token F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BERT!$G$3:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.24964684505554899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91718289766209504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97806385253421202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98940525917969502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98934821639985104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99446085799685502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99259295990363405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99353535353535305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99567286747240202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99673142530285397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99567286747240202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99544913044499295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99567286747240202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99673142530285397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99247712070522598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99567286747240202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99463160761290503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-AA8F-4852-9EFB-3107F44852DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1496,16 +963,221 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1168070656"/>
-        <c:axId val="1168071136"/>
+        <c:axId val="107786096"/>
+        <c:axId val="107787344"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>BERT!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Epoch</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>BERT!$A$3:$A$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002A-AA8F-4852-9EFB-3107F44852DA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1168070656"/>
+        <c:axId val="107786096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trained Epoch(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1540,10 +1212,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168071136"/>
+        <c:crossAx val="107787344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,10 +1223,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1168071136"/>
+        <c:axId val="107787344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1572,7 +1243,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1600,10 +1271,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168070656"/>
+        <c:crossAx val="107786096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,19 +1313,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1662,7 +1326,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1674,7 +1343,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2245,29 +1914,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>263524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940F80D8-C036-9B99-2444-5B90C5FB0099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469AD7C9-D57D-443C-8414-19C9E52281D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2601,38 +2268,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC93E4F-5AC5-4537-831E-6B17319C4C1A}">
-  <dimension ref="D10:J15"/>
+  <dimension ref="D10:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J14"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
+    <row r="10" spans="4:16" ht="17.25" thickBot="1">
+      <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="L10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" ht="17.25" thickBot="1">
       <c r="D11" s="10"/>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="F11" s="2">
@@ -2641,56 +2324,142 @@
       <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="27">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.4793</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.9718</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.72555000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="E12" s="16">
+        <v>113.6634</v>
+      </c>
+      <c r="F12" s="1">
+        <v>137.62379999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50.494999999999997</v>
+      </c>
+      <c r="H12" s="18">
+        <v>36.0396</v>
+      </c>
+      <c r="I12" s="18">
+        <v>38.811900000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>39.207900000000002</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.76469999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16">
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="E13" s="16">
+        <v>99.207899999999995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.653499999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12.0792</v>
+      </c>
+      <c r="H13" s="18">
+        <v>10.099</v>
+      </c>
+      <c r="I13" s="20">
+        <v>9.9009999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10.494999999999999</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="28">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.81194999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>560.9375</v>
-      </c>
-      <c r="F12" s="1">
-        <v>192.1875</v>
-      </c>
-      <c r="G12" s="1">
-        <v>142.1875</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="17">
+        <v>32.475200000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20.594100000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>18.0198</v>
+      </c>
+      <c r="H14" s="7">
+        <v>17.623799999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15.2475</v>
+      </c>
+      <c r="J14" s="8">
+        <v>14.0594</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="28">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.81125000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2698,764 +2467,1313 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="L15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="28">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.75229999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.79715000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="17.25" thickBot="1">
+      <c r="D17" s="10"/>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3236000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.2787</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0158</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.1686</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.18029999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.4134</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.44379999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E9DBA0-CF30-4218-A708-7C75A05CA4A8}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
         <v>2.7210884353741398E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>2.2910671234130802</v>
+      </c>
+      <c r="E2">
+        <v>2.7210884353741398E-2</v>
+      </c>
+      <c r="F2">
         <v>0.31798245614034998</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>3.5056273753884301E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1.3642000000000001</v>
+      </c>
+      <c r="C3">
         <v>0.27448851961046999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>0.43819206953048701</v>
+      </c>
+      <c r="E3">
+        <v>0.27448851961046999</v>
+      </c>
+      <c r="F3">
         <v>0.90350877192982404</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>0.24964684505554899</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>ABS($B3-$C3-$D3)</f>
+        <v>0.65151941085904297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="C4">
+        <v>1.24647712707519</v>
+      </c>
+      <c r="D4">
+        <v>0.17556805908679901</v>
+      </c>
+      <c r="E4">
         <v>0.328726586423712</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>0.98026315789473595</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>0.91718289766209504</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" ref="H4:H32" si="0">ABS($B4-$C4-$D4)</f>
+        <v>0.58814518616198908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C5">
+        <v>1.0233225822448699</v>
+      </c>
+      <c r="D5">
+        <v>7.6731182634830405E-2</v>
+      </c>
+      <c r="E5">
         <v>0.36692496035092897</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>0.98903508771929804</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>0.97806385253421202</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.51805376487970034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.88097631931304898</v>
+      </c>
+      <c r="D6">
+        <v>4.3763831257820102E-2</v>
+      </c>
+      <c r="E6">
         <v>0.34894476357890902</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>0.99561403508771895</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>0.98940525917969502</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.49214015057086913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.76768106222152699</v>
+      </c>
+      <c r="D7">
+        <v>1.9472816959023399E-2</v>
+      </c>
+      <c r="E7">
         <v>0.42002987220378502</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0.98934821639985104</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.46625387918055039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.2616</v>
+      </c>
+      <c r="C8">
+        <v>0.70168584585189797</v>
+      </c>
+      <c r="D8">
+        <v>1.41226584091782E-2</v>
+      </c>
+      <c r="E8">
         <v>0.49508560266996599</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>0.99446085799685502</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.45420850426107617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.58975905179977395</v>
+      </c>
+      <c r="D9">
+        <v>1.8591303378343499E-2</v>
+      </c>
+      <c r="E9">
         <v>0.51163763006914897</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0.99259295990363405</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.39595035517811739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.16919999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.54243022203445401</v>
+      </c>
+      <c r="D10">
+        <v>7.7307890169322404E-3</v>
+      </c>
+      <c r="E10">
         <v>0.49118512005820902</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>0.99353535353535305</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.38096101105138624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.1472</v>
+      </c>
+      <c r="C11">
+        <v>0.51760047674178999</v>
+      </c>
+      <c r="D11">
+        <v>1.2011457234620999E-2</v>
+      </c>
+      <c r="E11">
         <v>0.50056689342403604</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.38241193397641099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0.1202</v>
+      </c>
+      <c r="C12">
+        <v>0.55172199010848999</v>
+      </c>
+      <c r="D12">
+        <v>8.3563672378659196E-3</v>
+      </c>
+      <c r="E12">
         <v>0.56200466200466204</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0.99567286747240202</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.43987835734635594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.46901535987853998</v>
+      </c>
+      <c r="D13">
+        <v>5.5634733289480201E-3</v>
+      </c>
+      <c r="E13">
         <v>0.59993078983112202</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>0.99673142530285397</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.37677883320748801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.535949826240539</v>
+      </c>
+      <c r="D14">
+        <v>9.2710489407181705E-3</v>
+      </c>
+      <c r="E14">
         <v>0.60122810362843504</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>0.99567286747240202</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.46582087518125714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.43225860595703097</v>
+      </c>
+      <c r="D15">
+        <v>1.44054740667343E-2</v>
+      </c>
+      <c r="E15">
         <v>0.62860442458075205</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>0.99544913044499295</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.38086408002376526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.44916388392448398</v>
+      </c>
+      <c r="D16">
+        <v>1.6400596126914E-2</v>
+      </c>
+      <c r="E16">
         <v>0.62580172762324204</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.40926448005139798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.54690933227538996</v>
+      </c>
+      <c r="D17">
+        <v>1.2797742150723899E-2</v>
+      </c>
+      <c r="E17">
         <v>0.65996860282574499</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.51310707442611392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.42493078112602201</v>
+      </c>
+      <c r="D18">
+        <v>7.4665131978690598E-3</v>
+      </c>
+      <c r="E18">
         <v>0.84392084863321004</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>0.99567286747240202</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.38399729432389107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.37647166848182601</v>
+      </c>
+      <c r="D19">
+        <v>6.9208359345793698E-3</v>
+      </c>
+      <c r="E19">
         <v>0.782033068765699</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>0.99673142530285397</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.3589925044164054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.38068079948425199</v>
+      </c>
+      <c r="D20">
+        <v>8.96275788545608E-3</v>
+      </c>
+      <c r="E20">
         <v>0.82562969717933399</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.36914355736970805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>1.77E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.567615926265716</v>
+      </c>
+      <c r="D21">
+        <v>1.0641961358487601E-2</v>
+      </c>
+      <c r="E21">
         <v>0.78701285869576698</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.56055788762420355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.39957702159881497</v>
+      </c>
+      <c r="D22">
+        <v>7.8959697857499105E-3</v>
+      </c>
+      <c r="E22">
         <v>0.81292742345373903</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.39307299138456486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>1.11E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.41230130195617598</v>
+      </c>
+      <c r="D23">
+        <v>1.20160952210426E-2</v>
+      </c>
+      <c r="E23">
         <v>0.75659532518815098</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.41321739717721856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C24">
+        <v>0.397508174180984</v>
+      </c>
+      <c r="D24">
+        <v>9.8598571494221601E-3</v>
+      </c>
+      <c r="E24">
         <v>0.75866217306895201</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.39786803133040616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="C25">
+        <v>0.34452000260353</v>
+      </c>
+      <c r="D25">
+        <v>1.0097241960465899E-2</v>
+      </c>
+      <c r="E25">
         <v>0.86785873529214896</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>0.99247712070522598</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>ABS($B25-$C25-$D25)</f>
+        <v>0.34721724456399589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C26">
+        <v>0.430758357048034</v>
+      </c>
+      <c r="D26">
+        <v>1.12617593258619E-2</v>
+      </c>
+      <c r="E26">
         <v>0.81616186073813102</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.43552011637389587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C27">
+        <v>0.42142260074615401</v>
+      </c>
+      <c r="D27">
+        <v>1.6220696270465799E-2</v>
+      </c>
+      <c r="E27">
         <v>0.81523809523809498</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.43084329701661983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C28">
+        <v>0.57289439439773504</v>
+      </c>
+      <c r="D28">
+        <v>1.6424063593149098E-2</v>
+      </c>
+      <c r="E28">
         <v>0.75997616287188596</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.58411845799088413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C29">
+        <v>0.52418571710586503</v>
+      </c>
+      <c r="D29">
+        <v>7.28205731138587E-3</v>
+      </c>
+      <c r="E29">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.5254677744172509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C30">
+        <v>0.35999551415443398</v>
+      </c>
+      <c r="D30">
+        <v>6.0993568040430502E-3</v>
+      </c>
+      <c r="E30">
         <v>0.79241257100539697</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>0.99567286747240202</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.36129487095847701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C31">
+        <v>0.44541975855827298</v>
+      </c>
+      <c r="D31">
+        <v>1.4210514724254599E-2</v>
+      </c>
+      <c r="E31">
         <v>0.78936133866799096</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.45493027328252761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C32">
+        <v>0.477519750595092</v>
+      </c>
+      <c r="D32">
+        <v>1.3046053238213E-2</v>
+      </c>
+      <c r="E32">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>0.99463160761290503</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.486565803833305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>0.996580663958062</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>0.996580663958062</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>0.99552200377775002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <v>0.77979703356752506</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <v>0.77979703356752506</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>0.99463160761290503</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <v>0.78171286966940801</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>0.99463160761290503</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="A1:A52"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
